--- a/biology/Histoire de la zoologie et de la botanique/Emiliano_Aguirre/Emiliano_Aguirre.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Emiliano_Aguirre/Emiliano_Aguirre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Emiliano Aguirre Enríquez, né le 25 octobre 1925 à Ferrol et mort le 11 octobre 2021 à Burgos, est un paléontologue espagnol. Il est le premier directeur des recherches sur le site préhistorique de la Sierra d'Atapuerca, de 1978 jusqu'à sa retraite en 1990[1].
-Il est membre de l'Académie royale des sciences exactes, physiques et naturelles depuis 1998[2] et nommé docteur honoris causa de l'Université de Burgos en 2007[3].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Emiliano Aguirre Enríquez, né le 25 octobre 1925 à Ferrol et mort le 11 octobre 2021 à Burgos, est un paléontologue espagnol. Il est le premier directeur des recherches sur le site préhistorique de la Sierra d'Atapuerca, de 1978 jusqu'à sa retraite en 1990.
+Il est membre de l'Académie royale des sciences exactes, physiques et naturelles depuis 1998 et nommé docteur honoris causa de l'Université de Burgos en 2007.
 </t>
         </is>
       </c>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
